--- a/src/test/resources/sortAnalysis.xlsx
+++ b/src/test/resources/sortAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tucchase/Documents/education/tlg/dsa/sort/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5340C-F234-CF4C-8F4C-401615EE2187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCAEBEC-B1D2-4A4E-A731-C34802288B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{0E82EA7B-A29A-734D-A31C-2C190F8688B6}"/>
   </bookViews>
@@ -16,29 +16,29 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$20:$C$23</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$3:$C$19</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$3:$A$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$1:$B$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$20</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$20:$B$23</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$B$3:$B$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$20:$C$23</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$C$3:$C$19</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$3:$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$1:$B$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$20</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$20:$B$23</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$20:$B$23</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$3:$B$19</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$20:$C$23</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$C$3:$C$19</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$C$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$20:$C$23</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$C$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1:$A$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$3:$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$1:$B$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$20:$B$23</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$3:$B$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sorting Method</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Sorting Algorithms Time Complexity</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -109,6 +112,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,8 +167,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sort Algorithms Time Complexity</a:t>
+              <a:t>Sort Algorithms Test</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -221,8 +233,7 @@
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
+                <a:schemeClr val="accent1">
                   <a:alpha val="14000"/>
                 </a:schemeClr>
               </a:glow>
@@ -242,15 +253,70 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="14000"/>
                   </a:schemeClr>
                 </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$3:$B$19</c:f>
@@ -315,7 +381,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$3:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
@@ -378,9 +444,165 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="139700">
+                  <a:schemeClr val="accent6">
+                    <a:alpha val="14000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29DC-C149-B1F7-2C1555C4587F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -423,6 +645,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49950515679210983"/>
+              <c:y val="0.90169688651303903"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -524,6 +754,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.2332730560578659E-3"/>
+              <c:y val="0.41968070504948352"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -552,7 +790,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1251,16 +1489,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1585,17 +1823,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055E1706-4F7C-CE40-BBDD-EC12709FAC0A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1612,7 +1850,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1623,7 +1861,7 @@
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>12</v>
       </c>
     </row>
@@ -1632,7 +1870,7 @@
       <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>13</v>
       </c>
     </row>
@@ -1641,7 +1879,7 @@
       <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>13</v>
       </c>
     </row>
@@ -1650,7 +1888,7 @@
       <c r="B6">
         <v>80</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1659,7 +1897,7 @@
       <c r="B7">
         <v>160</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>14</v>
       </c>
     </row>
@@ -1668,7 +1906,7 @@
       <c r="B8">
         <v>320</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>20</v>
       </c>
     </row>
@@ -1677,7 +1915,7 @@
       <c r="B9">
         <v>640</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>29</v>
       </c>
     </row>
@@ -1686,7 +1924,7 @@
       <c r="B10">
         <v>1280</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>37</v>
       </c>
     </row>
@@ -1695,7 +1933,7 @@
       <c r="B11">
         <v>2560</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>69</v>
       </c>
     </row>
@@ -1704,7 +1942,7 @@
       <c r="B12">
         <v>5120</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>149</v>
       </c>
     </row>
@@ -1713,7 +1951,7 @@
       <c r="B13">
         <v>10240</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>525</v>
       </c>
     </row>
@@ -1722,7 +1960,7 @@
       <c r="B14">
         <v>20480</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>2023</v>
       </c>
     </row>
@@ -1731,7 +1969,7 @@
       <c r="B15">
         <v>40960</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>10644</v>
       </c>
     </row>
@@ -1740,7 +1978,7 @@
       <c r="B16">
         <v>81920</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>42199</v>
       </c>
     </row>
@@ -1750,7 +1988,7 @@
         <f>B16*2</f>
         <v>163840</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <f>120000+5400+85</f>
         <v>125485</v>
       </c>
@@ -1761,7 +1999,7 @@
         <f>B17*2</f>
         <v>327680</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <f>840000+2200+461</f>
         <v>842661</v>
       </c>
@@ -1772,15 +2010,54 @@
         <f>B18*2</f>
         <v>655360</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <f>3600000+660000+7000+514</f>
         <v>4267514</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22">
+        <v>100000</v>
+      </c>
+      <c r="C22" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23">
+        <v>1000000</v>
+      </c>
+      <c r="C23" s="4">
+        <v>972</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
